--- a/Assets/Resources/Configs/Excel/SkillConfig.xlsx
+++ b/Assets/Resources/Configs/Excel/SkillConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18220" windowHeight="6920"/>
+    <workbookView windowWidth="28680" windowHeight="12620"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,10 @@
     <t>蓄力斩</t>
   </si>
   <si>
-    <t>1*301</t>
-  </si>
-  <si>
-    <t>skill_1</t>
+    <t>1*3*2</t>
+  </si>
+  <si>
+    <t>s_1</t>
   </si>
   <si>
     <t>通过短暂蓄力汇聚能量，换取远超普通攻击的爆发伤害。蓄力完成时附带击退效果</t>
@@ -103,10 +103,10 @@
     <t>闪避</t>
   </si>
   <si>
-    <t>1*100</t>
-  </si>
-  <si>
-    <t>skill_3</t>
+    <t>1*3*1</t>
+  </si>
+  <si>
+    <t>s_3</t>
   </si>
   <si>
     <t>向指定方向位移并获得短暂无敌 / 免伤</t>
@@ -115,10 +115,10 @@
     <t>剑圣之力</t>
   </si>
   <si>
-    <t>1*300</t>
-  </si>
-  <si>
-    <t>skill_4</t>
+    <t>1*3*3</t>
+  </si>
+  <si>
+    <t>s_4</t>
   </si>
   <si>
     <t>激活后可短暂唤醒蕴含剑圣传承的强大武器</t>
@@ -129,10 +129,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -531,7 +531,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
